--- a/ConceptMap-R5-EnrollmentRequest-elements-for-R4-EnrollmentRequest.xlsx
+++ b/ConceptMap-R5-EnrollmentRequest-elements-for-R4-EnrollmentRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:32.4302582-06:00</t>
+    <t>2026-02-09T22:05:43.8162349-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -177,9 +177,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EnrollmentRequest#EnrollmentRequest.status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EnrollmentRequest.status</t>
-  </si>
-  <si>
     <t>EnrollmentRequest.created</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EnrollmentRequest#EnrollmentRequest.insurer</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/EnrollmentRequest#EnrollmentRequest.target</t>
-  </si>
-  <si>
     <t>EnrollmentRequest.provider</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/EnrollmentRequest#EnrollmentRequest.provider</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/EnrollmentRequest#EnrollmentRequest.organization</t>
-  </si>
-  <si>
     <t>EnrollmentRequest.candidate</t>
   </si>
   <si>
@@ -220,9 +211,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/EnrollmentRequest#EnrollmentRequest.candidate</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/EnrollmentRequest#EnrollmentRequest.subject</t>
   </si>
   <si>
     <t>EnrollmentRequest.coverage</t>
@@ -488,7 +476,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -632,120 +620,68 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E19" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-EnrollmentRequest-elements-for-R4-EnrollmentRequest.xlsx
+++ b/ConceptMap-R5-EnrollmentRequest-elements-for-R4-EnrollmentRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.8162349-06:00</t>
+    <t>2026-02-17T14:42:27.2182135-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
